--- a/biology/Histoire de la zoologie et de la botanique/Frank_Alois_Pitelka/Frank_Alois_Pitelka.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frank_Alois_Pitelka/Frank_Alois_Pitelka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Alois Pitelka est un ornithologue américain, né le 27 mars 1916 à Chicago et mort le 10 octobre 2003 à Altadena, Californie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l’université de l’Illinois où il obtient un Bachelor of Sciences en 1939 puis un doctorat à l’université de Berkeley en 1946. Durant ses études, il rencontre Dorothy Riggs, également étudiante, avec laquelle il se marie le 5 février 1943. Elle obtient son propre doctorat deux ans après son mari.
 F. Pitelka rejoint le département de zoologie de l’université de Berkeley en 1947. Il participe également au muséum de l’université de Berkeley où il assure notamment le poste de conservateur des oiseaux de 1949 à 1963. Il prend sa retraite en 1985 mais continue de travailler en collaboration avec le muséum jusqu’en 1997. Pour ses travaux avec ses étudiants, il reçoit une récompense en 1984.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Liste incomplète)
 1947 : Taxonomy and distribution of the Mexican sparrow Xenospiza baileyi. Condor, 49 : 199–203.</t>
@@ -575,7 +591,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Loye and Allen Miller Research Award en 2001</t>
         </is>
